--- a/20250311/311.xlsx
+++ b/20250311/311.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\cycu_oop_11022101\20250311\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1C41682-058B-43DB-903B-55CD99F6FA83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580FBBE1-692C-4642-B9EC-42BDCA953261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{C3858E7C-AD05-48C4-B27E-F20C66A489B7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,17 +36,16 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="新細明體"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -74,14 +68,10 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -100,7 +90,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -116,7 +106,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -128,7 +118,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -145,7 +135,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -175,29 +165,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -227,23 +200,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -395,14 +351,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9715988C-18FB-4DE2-B7A5-835EF50096E8}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -417,7 +373,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -425,7 +381,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -433,7 +389,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -441,7 +397,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -449,7 +405,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -457,7 +413,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -465,7 +421,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -473,7 +429,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -481,7 +437,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -489,7 +445,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -497,7 +453,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -505,7 +461,7 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -513,7 +469,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -521,23 +477,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>23</v>
-      </c>
-      <c r="B17">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
